--- a/Tool/EDL questionnaire_Pankhuri_Pascale_July24.xlsx
+++ b/Tool/EDL questionnaire_Pankhuri_Pascale_July24.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tgf-my.sharepoint.com/personal/pascale_ondoa_theglobalfund_org/Documents/IQVIA KPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d4a9fd65a6bad53/Seun/2. Career and business/3. IQVIA-Asiwaju-PC/Analysis/tHFA/Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{11467E37-6490-432B-91A0-1B6BA459528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18AD6D8-F4A0-274C-BD1B-ED83D62427C6}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="8_{11467E37-6490-432B-91A0-1B6BA459528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF60A080-96CA-4C4A-8009-BA18C6F1598F}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D06E992B-E3B2-40AA-925F-16146D5A88CD}"/>
+    <workbookView xWindow="456" yWindow="360" windowWidth="19152" windowHeight="10764" xr2:uid="{D06E992B-E3B2-40AA-925F-16146D5A88CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Lab-5 Indicator Calculation" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$29</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -944,21 +947,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09440804-CFAB-4263-BDBE-FCB8918DE7C8}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="66.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -975,7 +978,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -992,7 +995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1012,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="105" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="180" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>53</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="207" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1280,7 +1283,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>65</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="69" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -1392,10 +1395,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E29" xr:uid="{09440804-CFAB-4263-BDBE-FCB8918DE7C8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1408,14 +1412,14 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.1640625" customWidth="1"/>
+    <col min="1" max="1" width="102.19921875" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="42.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>83</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>82</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>28</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="135" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>61</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>65</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>74</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>77</v>
       </c>
